--- a/013_metrics_summary.xlsx
+++ b/013_metrics_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aure/acGdrive/00_Aure/AWS/00-UAustral/03-Grupos/Labo3-Denicolay/77_TP_Entrega_Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E164F8CA-7558-E949-9975-AE4617450DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95A826D-4554-7343-BFAA-EEC4F19701B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="76800" windowHeight="41260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>file_name</t>
   </si>
@@ -506,6 +506,168 @@
   </si>
   <si>
     <t>20240714-0813-LSTM_v8v4_feb_tfe2_0.2755.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1321-LSTM_v8v4_feb_tfe2_0.2684.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1325-LSTM_v8v4_feb_tfe2_0.291.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1330-LSTM_v8v4_feb_tfe2_0.2744.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1335-LSTM_v8v4_feb_tfe2_0.2735.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1342-LSTM_v8v4_feb_tfe2_0.2859.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1348-LSTM_v8v4_feb_tfe2_0.2887.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1350-LSTM_v8v4_feb_tfe2_0.3087.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1354-LSTM_v8v4_feb_tfe2_0.3115.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1358-LSTM_v8v4_feb_tfe2_0.3021.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1400-LSTM_v8v4_feb_tfe2_0.2856.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1403-LSTM_v8v4_feb_tfe2_0.304.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1407-LSTM_v8v4_feb_tfe2_0.2905.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1411-LSTM_v8v4_feb_tfe2_0.2828.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1416-LSTM_v8v4_feb_tfe2_0.279.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1422-LSTM_v8v4_feb_tfe2_0.3061.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1424-LSTM_v8v4_feb_tfe2_0.3095.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1426-LSTM_v8v4_feb_tfe2_0.3015.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1429-LSTM_v8v4_feb_tfe2_0.3544.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1432-LSTM_v8v4_feb_tfe2_0.2717.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1437-LSTM_v8v4_feb_tfe2_0.2772.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1442-LSTM_v8v4_feb_tfe2_0.2926.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1447-LSTM_v8v4_feb_tfe2_0.2699.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1453-LSTM_v8v4_feb_tfe2_0.2759.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1501-LSTM_v8v4_feb_tfe2_0.2905.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1504-LSTM_v8v4_feb_tfe2_0.2805.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1507-LSTM_v8v4_feb_tfe2_0.2949.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1511-LSTM_v8v4_feb_tfe2_0.3002.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1515-LSTM_v8v4_feb_tfe2_0.2878.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1519-LSTM_v8v4_feb_tfe2_0.2763.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1525-LSTM_v8v4_feb_tfe2_0.2811.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1531-LSTM_v8v4_feb_tfe2_0.2668.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1536-LSTM_v8v4_feb_tfe2_0.2945.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1544-LSTM_v8v4_feb_tfe2_0.2829.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1546-LSTM_v8v4_feb_tfe2_0.2855.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1549-LSTM_v8v4_feb_tfe2_0.3248.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1553-LSTM_v8v4_feb_tfe2_0.2797.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1556-LSTM_v8v4_feb_tfe2_0.3066.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1559-LSTM_v8v4_feb_tfe2_0.2834.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1602-LSTM_v8v4_feb_tfe2_0.2896.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1606-LSTM_v8v4_feb_tfe2_0.2861.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1612-LSTM_v8v4_feb_tfe2_0.2865.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1617-LSTM_v8v4_feb_tfe2_0.3057.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1619-LSTM_v8v4_feb_tfe2_0.2903.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1621-LSTM_v8v4_feb_tfe2_0.3148.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1623-LSTM_v8v4_feb_tfe2_0.3563.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1628-LSTM_v8v4_feb_tfe2_0.2724.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1633-LSTM_v8v4_feb_tfe2_0.2822.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1638-LSTM_v8v4_feb_tfe2_0.2896.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1644-LSTM_v8v4_feb_tfe2_0.2722.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1650-LSTM_v8v4_feb_tfe2_0.285.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1658-LSTM_v8v4_feb_tfe2_0.2815.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1700-LSTM_v8v4_feb_tfe2_0.2777.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1703-LSTM_v8v4_feb_tfe2_0.3113.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-1708-LSTM_v8v4_feb_tfe2_0.309.csv.metrics.json</t>
   </si>
 </sst>
 </file>
@@ -869,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R145"/>
+  <dimension ref="A1:R199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
@@ -9001,6 +9163,3030 @@
         <v>0.24717046965620701</v>
       </c>
     </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" t="b">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>12</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146">
+        <v>50</v>
+      </c>
+      <c r="F146">
+        <v>32</v>
+      </c>
+      <c r="G146">
+        <v>1E-4</v>
+      </c>
+      <c r="H146">
+        <v>10</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>3.3830796718067622</v>
+      </c>
+      <c r="L146">
+        <v>8.5224077814175878</v>
+      </c>
+      <c r="M146">
+        <v>115.52431517001941</v>
+      </c>
+      <c r="N146">
+        <v>0.2683853938525555</v>
+      </c>
+      <c r="O146">
+        <v>3.3830796718067622</v>
+      </c>
+      <c r="P146">
+        <v>9.7332656947183338</v>
+      </c>
+      <c r="Q146">
+        <v>115.52431517001941</v>
+      </c>
+      <c r="R146">
+        <v>0.24211324327786579</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>163</v>
+      </c>
+      <c r="B147" t="b">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>12</v>
+      </c>
+      <c r="D147">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>50</v>
+      </c>
+      <c r="F147">
+        <v>32</v>
+      </c>
+      <c r="G147">
+        <v>1E-4</v>
+      </c>
+      <c r="H147">
+        <v>10</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>3.6937239852247798</v>
+      </c>
+      <c r="L147">
+        <v>9.2631106879172442</v>
+      </c>
+      <c r="M147">
+        <v>116.98150945201751</v>
+      </c>
+      <c r="N147">
+        <v>0.29097293534320728</v>
+      </c>
+      <c r="O147">
+        <v>3.6937239852247798</v>
+      </c>
+      <c r="P147">
+        <v>10.752012747033669</v>
+      </c>
+      <c r="Q147">
+        <v>116.98150945201751</v>
+      </c>
+      <c r="R147">
+        <v>0.26858253704468682</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>164</v>
+      </c>
+      <c r="B148" t="b">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>12</v>
+      </c>
+      <c r="D148">
+        <v>9</v>
+      </c>
+      <c r="E148">
+        <v>50</v>
+      </c>
+      <c r="F148">
+        <v>32</v>
+      </c>
+      <c r="G148">
+        <v>1E-4</v>
+      </c>
+      <c r="H148">
+        <v>10</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>3.3885090465094141</v>
+      </c>
+      <c r="L148">
+        <v>8.5707919267106032</v>
+      </c>
+      <c r="M148">
+        <v>104.4977209709549</v>
+      </c>
+      <c r="N148">
+        <v>0.27442546190812711</v>
+      </c>
+      <c r="O148">
+        <v>3.3885090465094141</v>
+      </c>
+      <c r="P148">
+        <v>9.8907202413853739</v>
+      </c>
+      <c r="Q148">
+        <v>104.4977209709549</v>
+      </c>
+      <c r="R148">
+        <v>0.2472664686300404</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>165</v>
+      </c>
+      <c r="B149" t="b">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>12</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>50</v>
+      </c>
+      <c r="F149">
+        <v>16</v>
+      </c>
+      <c r="G149">
+        <v>1E-4</v>
+      </c>
+      <c r="H149">
+        <v>10</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>3.4814907194688369</v>
+      </c>
+      <c r="L149">
+        <v>8.8119768465867097</v>
+      </c>
+      <c r="M149">
+        <v>110.4781994666002</v>
+      </c>
+      <c r="N149">
+        <v>0.27348137095666092</v>
+      </c>
+      <c r="O149">
+        <v>3.4814907194688378</v>
+      </c>
+      <c r="P149">
+        <v>10.15572539249192</v>
+      </c>
+      <c r="Q149">
+        <v>110.4781994666001</v>
+      </c>
+      <c r="R149">
+        <v>0.25014309662138989</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>166</v>
+      </c>
+      <c r="B150" t="b">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>50</v>
+      </c>
+      <c r="F150">
+        <v>16</v>
+      </c>
+      <c r="G150">
+        <v>1E-4</v>
+      </c>
+      <c r="H150">
+        <v>10</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>3.5239992598666539</v>
+      </c>
+      <c r="L150">
+        <v>8.8194741433042907</v>
+      </c>
+      <c r="M150">
+        <v>132.75903194542141</v>
+      </c>
+      <c r="N150">
+        <v>0.28588916821551758</v>
+      </c>
+      <c r="O150">
+        <v>3.5239992598666539</v>
+      </c>
+      <c r="P150">
+        <v>10.18941566821708</v>
+      </c>
+      <c r="Q150">
+        <v>132.75903194542141</v>
+      </c>
+      <c r="R150">
+        <v>0.25710857776484741</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>167</v>
+      </c>
+      <c r="B151" t="b">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>12</v>
+      </c>
+      <c r="D151">
+        <v>9</v>
+      </c>
+      <c r="E151">
+        <v>50</v>
+      </c>
+      <c r="F151">
+        <v>16</v>
+      </c>
+      <c r="G151">
+        <v>1E-4</v>
+      </c>
+      <c r="H151">
+        <v>10</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>3.6439959181259698</v>
+      </c>
+      <c r="L151">
+        <v>9.4439050659706361</v>
+      </c>
+      <c r="M151">
+        <v>113.60077650879209</v>
+      </c>
+      <c r="N151">
+        <v>0.28873039718861893</v>
+      </c>
+      <c r="O151">
+        <v>3.6439959181259711</v>
+      </c>
+      <c r="P151">
+        <v>11.177845063076679</v>
+      </c>
+      <c r="Q151">
+        <v>113.60077650879209</v>
+      </c>
+      <c r="R151">
+        <v>0.26581241382558951</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>168</v>
+      </c>
+      <c r="B152" t="b">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>12</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+      <c r="E152">
+        <v>50</v>
+      </c>
+      <c r="F152">
+        <v>64</v>
+      </c>
+      <c r="G152">
+        <v>1E-4</v>
+      </c>
+      <c r="H152">
+        <v>10</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>4.1712208037308711</v>
+      </c>
+      <c r="L152">
+        <v>9.6913961684247347</v>
+      </c>
+      <c r="M152">
+        <v>137.78191729498971</v>
+      </c>
+      <c r="N152">
+        <v>0.30871396456672667</v>
+      </c>
+      <c r="O152">
+        <v>4.1712208037308711</v>
+      </c>
+      <c r="P152">
+        <v>11.190658903645399</v>
+      </c>
+      <c r="Q152">
+        <v>137.78191729498971</v>
+      </c>
+      <c r="R152">
+        <v>0.30056140172086199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>169</v>
+      </c>
+      <c r="B153" t="b">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>12</v>
+      </c>
+      <c r="D153">
+        <v>6</v>
+      </c>
+      <c r="E153">
+        <v>50</v>
+      </c>
+      <c r="F153">
+        <v>64</v>
+      </c>
+      <c r="G153">
+        <v>1E-4</v>
+      </c>
+      <c r="H153">
+        <v>10</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>4.1993819952844751</v>
+      </c>
+      <c r="L153">
+        <v>9.6748648099386028</v>
+      </c>
+      <c r="M153">
+        <v>254.53606320108369</v>
+      </c>
+      <c r="N153">
+        <v>0.31153718318446311</v>
+      </c>
+      <c r="O153">
+        <v>4.199381995284476</v>
+      </c>
+      <c r="P153">
+        <v>11.08776027951073</v>
+      </c>
+      <c r="Q153">
+        <v>254.53606320108369</v>
+      </c>
+      <c r="R153">
+        <v>0.30612319959861473</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" t="b">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>12</v>
+      </c>
+      <c r="D154">
+        <v>9</v>
+      </c>
+      <c r="E154">
+        <v>50</v>
+      </c>
+      <c r="F154">
+        <v>64</v>
+      </c>
+      <c r="G154">
+        <v>1E-4</v>
+      </c>
+      <c r="H154">
+        <v>10</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>3.9253384097185799</v>
+      </c>
+      <c r="L154">
+        <v>9.6382694534815663</v>
+      </c>
+      <c r="M154">
+        <v>113.0624362180538</v>
+      </c>
+      <c r="N154">
+        <v>0.3021292026295625</v>
+      </c>
+      <c r="O154">
+        <v>3.9253384097185791</v>
+      </c>
+      <c r="P154">
+        <v>11.198708482721001</v>
+      </c>
+      <c r="Q154">
+        <v>113.0624362180539</v>
+      </c>
+      <c r="R154">
+        <v>0.28617187655048659</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>171</v>
+      </c>
+      <c r="B155" t="b">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>12</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155">
+        <v>20</v>
+      </c>
+      <c r="F155">
+        <v>32</v>
+      </c>
+      <c r="G155">
+        <v>1E-4</v>
+      </c>
+      <c r="H155">
+        <v>10</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>3.6848820095837622</v>
+      </c>
+      <c r="L155">
+        <v>9.0954608835402837</v>
+      </c>
+      <c r="M155">
+        <v>113.8598286402449</v>
+      </c>
+      <c r="N155">
+        <v>0.28557235339599563</v>
+      </c>
+      <c r="O155">
+        <v>3.6848820095837622</v>
+      </c>
+      <c r="P155">
+        <v>10.48429630000539</v>
+      </c>
+      <c r="Q155">
+        <v>113.8598286402449</v>
+      </c>
+      <c r="R155">
+        <v>0.26520637545891451</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>172</v>
+      </c>
+      <c r="B156" t="b">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>12</v>
+      </c>
+      <c r="D156">
+        <v>6</v>
+      </c>
+      <c r="E156">
+        <v>20</v>
+      </c>
+      <c r="F156">
+        <v>32</v>
+      </c>
+      <c r="G156">
+        <v>1E-4</v>
+      </c>
+      <c r="H156">
+        <v>10</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>3.869386129147006</v>
+      </c>
+      <c r="L156">
+        <v>9.888023744642755</v>
+      </c>
+      <c r="M156">
+        <v>120.0387022997929</v>
+      </c>
+      <c r="N156">
+        <v>0.30396765600887898</v>
+      </c>
+      <c r="O156">
+        <v>3.869386129147006</v>
+      </c>
+      <c r="P156">
+        <v>11.646976476088749</v>
+      </c>
+      <c r="Q156">
+        <v>120.0387022997929</v>
+      </c>
+      <c r="R156">
+        <v>0.28245946886683998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>173</v>
+      </c>
+      <c r="B157" t="b">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>12</v>
+      </c>
+      <c r="D157">
+        <v>9</v>
+      </c>
+      <c r="E157">
+        <v>20</v>
+      </c>
+      <c r="F157">
+        <v>32</v>
+      </c>
+      <c r="G157">
+        <v>1E-4</v>
+      </c>
+      <c r="H157">
+        <v>10</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>3.6688301427647798</v>
+      </c>
+      <c r="L157">
+        <v>9.4773774819084142</v>
+      </c>
+      <c r="M157">
+        <v>106.7323680792444</v>
+      </c>
+      <c r="N157">
+        <v>0.29045853526808402</v>
+      </c>
+      <c r="O157">
+        <v>3.6688301427647798</v>
+      </c>
+      <c r="P157">
+        <v>11.18883604628218</v>
+      </c>
+      <c r="Q157">
+        <v>106.7323680792444</v>
+      </c>
+      <c r="R157">
+        <v>0.2670337324999838</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>174</v>
+      </c>
+      <c r="B158" t="b">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>12</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158">
+        <v>20</v>
+      </c>
+      <c r="F158">
+        <v>16</v>
+      </c>
+      <c r="G158">
+        <v>1E-4</v>
+      </c>
+      <c r="H158">
+        <v>10</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>3.614039122887569</v>
+      </c>
+      <c r="L158">
+        <v>9.0044137740523187</v>
+      </c>
+      <c r="M158">
+        <v>109.2454451803368</v>
+      </c>
+      <c r="N158">
+        <v>0.282806348302861</v>
+      </c>
+      <c r="O158">
+        <v>3.6140391228875699</v>
+      </c>
+      <c r="P158">
+        <v>10.388005877777619</v>
+      </c>
+      <c r="Q158">
+        <v>109.2454451803368</v>
+      </c>
+      <c r="R158">
+        <v>0.26007903333175342</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>175</v>
+      </c>
+      <c r="B159" t="b">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>12</v>
+      </c>
+      <c r="D159">
+        <v>6</v>
+      </c>
+      <c r="E159">
+        <v>20</v>
+      </c>
+      <c r="F159">
+        <v>16</v>
+      </c>
+      <c r="G159">
+        <v>1E-4</v>
+      </c>
+      <c r="H159">
+        <v>10</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>3.4868229218902842</v>
+      </c>
+      <c r="L159">
+        <v>8.6594597023276823</v>
+      </c>
+      <c r="M159">
+        <v>115.47162767257061</v>
+      </c>
+      <c r="N159">
+        <v>0.27896901497229321</v>
+      </c>
+      <c r="O159">
+        <v>3.4868229218902842</v>
+      </c>
+      <c r="P159">
+        <v>9.9524820533736467</v>
+      </c>
+      <c r="Q159">
+        <v>115.47162767257061</v>
+      </c>
+      <c r="R159">
+        <v>0.25321132638110522</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>176</v>
+      </c>
+      <c r="B160" t="b">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>12</v>
+      </c>
+      <c r="D160">
+        <v>9</v>
+      </c>
+      <c r="E160">
+        <v>20</v>
+      </c>
+      <c r="F160">
+        <v>16</v>
+      </c>
+      <c r="G160">
+        <v>1E-4</v>
+      </c>
+      <c r="H160">
+        <v>10</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>3.7592796050303892</v>
+      </c>
+      <c r="L160">
+        <v>9.5324904055030117</v>
+      </c>
+      <c r="M160">
+        <v>129.5478229900136</v>
+      </c>
+      <c r="N160">
+        <v>0.30607448403408388</v>
+      </c>
+      <c r="O160">
+        <v>3.7592796050303892</v>
+      </c>
+      <c r="P160">
+        <v>11.27240723135484</v>
+      </c>
+      <c r="Q160">
+        <v>129.5478229900136</v>
+      </c>
+      <c r="R160">
+        <v>0.27439272463895642</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>177</v>
+      </c>
+      <c r="B161" t="b">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>12</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+      <c r="E161">
+        <v>20</v>
+      </c>
+      <c r="F161">
+        <v>64</v>
+      </c>
+      <c r="G161">
+        <v>1E-4</v>
+      </c>
+      <c r="H161">
+        <v>10</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>4.2203864183211994</v>
+      </c>
+      <c r="L161">
+        <v>9.9765681536130764</v>
+      </c>
+      <c r="M161">
+        <v>133.5864940300464</v>
+      </c>
+      <c r="N161">
+        <v>0.30947633842657851</v>
+      </c>
+      <c r="O161">
+        <v>4.2203864183211994</v>
+      </c>
+      <c r="P161">
+        <v>11.515520846110361</v>
+      </c>
+      <c r="Q161">
+        <v>133.5864940300464</v>
+      </c>
+      <c r="R161">
+        <v>0.30449629819907331</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>178</v>
+      </c>
+      <c r="B162" t="b">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>12</v>
+      </c>
+      <c r="D162">
+        <v>6</v>
+      </c>
+      <c r="E162">
+        <v>20</v>
+      </c>
+      <c r="F162">
+        <v>64</v>
+      </c>
+      <c r="G162">
+        <v>1E-4</v>
+      </c>
+      <c r="H162">
+        <v>10</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>3.8877943671269328</v>
+      </c>
+      <c r="L162">
+        <v>9.505831974164451</v>
+      </c>
+      <c r="M162">
+        <v>115.05066552106361</v>
+      </c>
+      <c r="N162">
+        <v>0.30148312175070668</v>
+      </c>
+      <c r="O162">
+        <v>3.8877943671269319</v>
+      </c>
+      <c r="P162">
+        <v>11.029733240950669</v>
+      </c>
+      <c r="Q162">
+        <v>115.05066552106361</v>
+      </c>
+      <c r="R162">
+        <v>0.28356598419802032</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>179</v>
+      </c>
+      <c r="B163" t="b">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>12</v>
+      </c>
+      <c r="D163">
+        <v>9</v>
+      </c>
+      <c r="E163">
+        <v>20</v>
+      </c>
+      <c r="F163">
+        <v>64</v>
+      </c>
+      <c r="G163">
+        <v>1E-4</v>
+      </c>
+      <c r="H163">
+        <v>10</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>4.8556769922944918</v>
+      </c>
+      <c r="L163">
+        <v>11.50302923600775</v>
+      </c>
+      <c r="M163">
+        <v>115.82984534212039</v>
+      </c>
+      <c r="N163">
+        <v>0.35438943385781219</v>
+      </c>
+      <c r="O163">
+        <v>4.8556769922944918</v>
+      </c>
+      <c r="P163">
+        <v>13.747080980742449</v>
+      </c>
+      <c r="Q163">
+        <v>115.82984534212039</v>
+      </c>
+      <c r="R163">
+        <v>0.35493137265680608</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>180</v>
+      </c>
+      <c r="B164" t="b">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+      <c r="E164">
+        <v>100</v>
+      </c>
+      <c r="F164">
+        <v>32</v>
+      </c>
+      <c r="G164">
+        <v>1E-4</v>
+      </c>
+      <c r="H164">
+        <v>10</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>3.4282177167610168</v>
+      </c>
+      <c r="L164">
+        <v>8.740234225997515</v>
+      </c>
+      <c r="M164">
+        <v>117.6084671820682</v>
+      </c>
+      <c r="N164">
+        <v>0.27166004325564308</v>
+      </c>
+      <c r="O164">
+        <v>3.4282177167610168</v>
+      </c>
+      <c r="P164">
+        <v>10.03266289690313</v>
+      </c>
+      <c r="Q164">
+        <v>117.6084671820682</v>
+      </c>
+      <c r="R164">
+        <v>0.24656506557882321</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>181</v>
+      </c>
+      <c r="B165" t="b">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>12</v>
+      </c>
+      <c r="D165">
+        <v>6</v>
+      </c>
+      <c r="E165">
+        <v>100</v>
+      </c>
+      <c r="F165">
+        <v>32</v>
+      </c>
+      <c r="G165">
+        <v>1E-4</v>
+      </c>
+      <c r="H165">
+        <v>10</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>3.4565421141603152</v>
+      </c>
+      <c r="L165">
+        <v>8.6920300181689658</v>
+      </c>
+      <c r="M165">
+        <v>119.73770312293119</v>
+      </c>
+      <c r="N165">
+        <v>0.27721391517655869</v>
+      </c>
+      <c r="O165">
+        <v>3.4565421141603152</v>
+      </c>
+      <c r="P165">
+        <v>9.9963071403037134</v>
+      </c>
+      <c r="Q165">
+        <v>119.73770312293119</v>
+      </c>
+      <c r="R165">
+        <v>0.25187629015930552</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>182</v>
+      </c>
+      <c r="B166" t="b">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>12</v>
+      </c>
+      <c r="D166">
+        <v>9</v>
+      </c>
+      <c r="E166">
+        <v>100</v>
+      </c>
+      <c r="F166">
+        <v>32</v>
+      </c>
+      <c r="G166">
+        <v>1E-4</v>
+      </c>
+      <c r="H166">
+        <v>10</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>3.6587424015480559</v>
+      </c>
+      <c r="L166">
+        <v>9.558490693042959</v>
+      </c>
+      <c r="M166">
+        <v>103.9582920066117</v>
+      </c>
+      <c r="N166">
+        <v>0.29257351369656942</v>
+      </c>
+      <c r="O166">
+        <v>3.6587424015480559</v>
+      </c>
+      <c r="P166">
+        <v>11.317279110746259</v>
+      </c>
+      <c r="Q166">
+        <v>103.9582920066118</v>
+      </c>
+      <c r="R166">
+        <v>0.26659074816787098</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>183</v>
+      </c>
+      <c r="B167" t="b">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>12</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
+      </c>
+      <c r="E167">
+        <v>100</v>
+      </c>
+      <c r="F167">
+        <v>16</v>
+      </c>
+      <c r="G167">
+        <v>1E-4</v>
+      </c>
+      <c r="H167">
+        <v>10</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>3.3932998216340819</v>
+      </c>
+      <c r="L167">
+        <v>8.6047631013373795</v>
+      </c>
+      <c r="M167">
+        <v>110.72636150842131</v>
+      </c>
+      <c r="N167">
+        <v>0.26986329359974698</v>
+      </c>
+      <c r="O167">
+        <v>3.3932998216340819</v>
+      </c>
+      <c r="P167">
+        <v>9.8409139016229599</v>
+      </c>
+      <c r="Q167">
+        <v>110.72636150842131</v>
+      </c>
+      <c r="R167">
+        <v>0.24362716504533569</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>184</v>
+      </c>
+      <c r="B168" t="b">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+      <c r="D168">
+        <v>6</v>
+      </c>
+      <c r="E168">
+        <v>100</v>
+      </c>
+      <c r="F168">
+        <v>16</v>
+      </c>
+      <c r="G168">
+        <v>1E-4</v>
+      </c>
+      <c r="H168">
+        <v>10</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>3.4266071890279242</v>
+      </c>
+      <c r="L168">
+        <v>8.6661655375180437</v>
+      </c>
+      <c r="M168">
+        <v>114.43280891833579</v>
+      </c>
+      <c r="N168">
+        <v>0.27594459881120392</v>
+      </c>
+      <c r="O168">
+        <v>3.4266071890279228</v>
+      </c>
+      <c r="P168">
+        <v>9.9556182286545081</v>
+      </c>
+      <c r="Q168">
+        <v>114.43280891833579</v>
+      </c>
+      <c r="R168">
+        <v>0.24991140243012619</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>185</v>
+      </c>
+      <c r="B169" t="b">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>12</v>
+      </c>
+      <c r="D169">
+        <v>9</v>
+      </c>
+      <c r="E169">
+        <v>100</v>
+      </c>
+      <c r="F169">
+        <v>16</v>
+      </c>
+      <c r="G169">
+        <v>1E-4</v>
+      </c>
+      <c r="H169">
+        <v>10</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>3.6814941325591408</v>
+      </c>
+      <c r="L169">
+        <v>9.7001748370619794</v>
+      </c>
+      <c r="M169">
+        <v>104.25111955653389</v>
+      </c>
+      <c r="N169">
+        <v>0.29048865602175439</v>
+      </c>
+      <c r="O169">
+        <v>3.6814941325591408</v>
+      </c>
+      <c r="P169">
+        <v>11.65458643951602</v>
+      </c>
+      <c r="Q169">
+        <v>104.25111955653389</v>
+      </c>
+      <c r="R169">
+        <v>0.26870872231348458</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>186</v>
+      </c>
+      <c r="B170" t="b">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>12</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+      <c r="E170">
+        <v>100</v>
+      </c>
+      <c r="F170">
+        <v>64</v>
+      </c>
+      <c r="G170">
+        <v>1E-4</v>
+      </c>
+      <c r="H170">
+        <v>10</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>3.586355542752258</v>
+      </c>
+      <c r="L170">
+        <v>9.1584818917817046</v>
+      </c>
+      <c r="M170">
+        <v>117.01412899465051</v>
+      </c>
+      <c r="N170">
+        <v>0.28051946089971408</v>
+      </c>
+      <c r="O170">
+        <v>3.586355542752258</v>
+      </c>
+      <c r="P170">
+        <v>10.587061637545849</v>
+      </c>
+      <c r="Q170">
+        <v>117.01412899465051</v>
+      </c>
+      <c r="R170">
+        <v>0.25757437393442612</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>187</v>
+      </c>
+      <c r="B171" t="b">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>12</v>
+      </c>
+      <c r="D171">
+        <v>6</v>
+      </c>
+      <c r="E171">
+        <v>100</v>
+      </c>
+      <c r="F171">
+        <v>64</v>
+      </c>
+      <c r="G171">
+        <v>1E-4</v>
+      </c>
+      <c r="H171">
+        <v>10</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>3.7453331258386759</v>
+      </c>
+      <c r="L171">
+        <v>9.4307918660099066</v>
+      </c>
+      <c r="M171">
+        <v>126.47011413576161</v>
+      </c>
+      <c r="N171">
+        <v>0.2949221111848111</v>
+      </c>
+      <c r="O171">
+        <v>3.7453331258386759</v>
+      </c>
+      <c r="P171">
+        <v>11.01483776387971</v>
+      </c>
+      <c r="Q171">
+        <v>126.47011413576161</v>
+      </c>
+      <c r="R171">
+        <v>0.27335531417266568</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>188</v>
+      </c>
+      <c r="B172" t="b">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>12</v>
+      </c>
+      <c r="D172">
+        <v>9</v>
+      </c>
+      <c r="E172">
+        <v>100</v>
+      </c>
+      <c r="F172">
+        <v>64</v>
+      </c>
+      <c r="G172">
+        <v>1E-4</v>
+      </c>
+      <c r="H172">
+        <v>10</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>3.9000255739227612</v>
+      </c>
+      <c r="L172">
+        <v>9.7326152184080428</v>
+      </c>
+      <c r="M172">
+        <v>108.6593093606632</v>
+      </c>
+      <c r="N172">
+        <v>0.30018961053525711</v>
+      </c>
+      <c r="O172">
+        <v>3.9000255739227612</v>
+      </c>
+      <c r="P172">
+        <v>11.284599146526221</v>
+      </c>
+      <c r="Q172">
+        <v>108.6593093606632</v>
+      </c>
+      <c r="R172">
+        <v>0.28485500014178472</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>189</v>
+      </c>
+      <c r="B173" t="b">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>11</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+      <c r="E173">
+        <v>50</v>
+      </c>
+      <c r="F173">
+        <v>32</v>
+      </c>
+      <c r="G173">
+        <v>1E-4</v>
+      </c>
+      <c r="H173">
+        <v>10</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>3.679728646755577</v>
+      </c>
+      <c r="L173">
+        <v>9.5248224950174887</v>
+      </c>
+      <c r="M173">
+        <v>110.3776013120917</v>
+      </c>
+      <c r="N173">
+        <v>0.28779178156977542</v>
+      </c>
+      <c r="O173">
+        <v>3.679728646755577</v>
+      </c>
+      <c r="P173">
+        <v>11.10602909719301</v>
+      </c>
+      <c r="Q173">
+        <v>110.3776013120917</v>
+      </c>
+      <c r="R173">
+        <v>0.26389867714607429</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>190</v>
+      </c>
+      <c r="B174" t="b">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>11</v>
+      </c>
+      <c r="D174">
+        <v>6</v>
+      </c>
+      <c r="E174">
+        <v>50</v>
+      </c>
+      <c r="F174">
+        <v>32</v>
+      </c>
+      <c r="G174">
+        <v>1E-4</v>
+      </c>
+      <c r="H174">
+        <v>10</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>3.429350936200517</v>
+      </c>
+      <c r="L174">
+        <v>8.6374809109608854</v>
+      </c>
+      <c r="M174">
+        <v>119.59104153579899</v>
+      </c>
+      <c r="N174">
+        <v>0.2763138911617537</v>
+      </c>
+      <c r="O174">
+        <v>3.429350936200517</v>
+      </c>
+      <c r="P174">
+        <v>9.9285012699297948</v>
+      </c>
+      <c r="Q174">
+        <v>119.59104153579889</v>
+      </c>
+      <c r="R174">
+        <v>0.24972273388051111</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>191</v>
+      </c>
+      <c r="B175" t="b">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>11</v>
+      </c>
+      <c r="D175">
+        <v>9</v>
+      </c>
+      <c r="E175">
+        <v>50</v>
+      </c>
+      <c r="F175">
+        <v>32</v>
+      </c>
+      <c r="G175">
+        <v>1E-4</v>
+      </c>
+      <c r="H175">
+        <v>10</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>3.4910560832905762</v>
+      </c>
+      <c r="L175">
+        <v>9.0538773152948337</v>
+      </c>
+      <c r="M175">
+        <v>108.3325360747619</v>
+      </c>
+      <c r="N175">
+        <v>0.2810990348071164</v>
+      </c>
+      <c r="O175">
+        <v>3.491056083290577</v>
+      </c>
+      <c r="P175">
+        <v>10.57200221248395</v>
+      </c>
+      <c r="Q175">
+        <v>108.3325360747619</v>
+      </c>
+      <c r="R175">
+        <v>0.25392934221229391</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>192</v>
+      </c>
+      <c r="B176" t="b">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>11</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+      <c r="E176">
+        <v>50</v>
+      </c>
+      <c r="F176">
+        <v>16</v>
+      </c>
+      <c r="G176">
+        <v>1E-4</v>
+      </c>
+      <c r="H176">
+        <v>10</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>3.3404865423368091</v>
+      </c>
+      <c r="L176">
+        <v>8.5110688562874834</v>
+      </c>
+      <c r="M176">
+        <v>107.0275633684068</v>
+      </c>
+      <c r="N176">
+        <v>0.2668229076380107</v>
+      </c>
+      <c r="O176">
+        <v>3.3404865423368082</v>
+      </c>
+      <c r="P176">
+        <v>9.6984361380025224</v>
+      </c>
+      <c r="Q176">
+        <v>107.0275633684068</v>
+      </c>
+      <c r="R176">
+        <v>0.24010191523225111</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>193</v>
+      </c>
+      <c r="B177" t="b">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>11</v>
+      </c>
+      <c r="D177">
+        <v>6</v>
+      </c>
+      <c r="E177">
+        <v>50</v>
+      </c>
+      <c r="F177">
+        <v>16</v>
+      </c>
+      <c r="G177">
+        <v>1E-4</v>
+      </c>
+      <c r="H177">
+        <v>10</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>3.6740099711736729</v>
+      </c>
+      <c r="L177">
+        <v>9.4395207411960715</v>
+      </c>
+      <c r="M177">
+        <v>125.79284609228181</v>
+      </c>
+      <c r="N177">
+        <v>0.29453622184163381</v>
+      </c>
+      <c r="O177">
+        <v>3.6740099711736729</v>
+      </c>
+      <c r="P177">
+        <v>11.129128323820121</v>
+      </c>
+      <c r="Q177">
+        <v>125.79284609228181</v>
+      </c>
+      <c r="R177">
+        <v>0.26731099122634677</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>194</v>
+      </c>
+      <c r="B178" t="b">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>11</v>
+      </c>
+      <c r="D178">
+        <v>9</v>
+      </c>
+      <c r="E178">
+        <v>50</v>
+      </c>
+      <c r="F178">
+        <v>16</v>
+      </c>
+      <c r="G178">
+        <v>1E-4</v>
+      </c>
+      <c r="H178">
+        <v>10</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>3.510148050219045</v>
+      </c>
+      <c r="L178">
+        <v>8.9353152642399571</v>
+      </c>
+      <c r="M178">
+        <v>110.5622990013668</v>
+      </c>
+      <c r="N178">
+        <v>0.28285894444809517</v>
+      </c>
+      <c r="O178">
+        <v>3.510148050219045</v>
+      </c>
+      <c r="P178">
+        <v>10.429068691714191</v>
+      </c>
+      <c r="Q178">
+        <v>110.5622990013668</v>
+      </c>
+      <c r="R178">
+        <v>0.25540456088103702</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>195</v>
+      </c>
+      <c r="B179" t="b">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>11</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
+      <c r="E179">
+        <v>50</v>
+      </c>
+      <c r="F179">
+        <v>64</v>
+      </c>
+      <c r="G179">
+        <v>1E-4</v>
+      </c>
+      <c r="H179">
+        <v>10</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>3.7219864223301742</v>
+      </c>
+      <c r="L179">
+        <v>9.4739062147748232</v>
+      </c>
+      <c r="M179">
+        <v>117.7747305151933</v>
+      </c>
+      <c r="N179">
+        <v>0.28551901249809891</v>
+      </c>
+      <c r="O179">
+        <v>3.7219864223301751</v>
+      </c>
+      <c r="P179">
+        <v>11.088296243344461</v>
+      </c>
+      <c r="Q179">
+        <v>117.7747305151933</v>
+      </c>
+      <c r="R179">
+        <v>0.26727548570644732</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>196</v>
+      </c>
+      <c r="B180" t="b">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>11</v>
+      </c>
+      <c r="D180">
+        <v>6</v>
+      </c>
+      <c r="E180">
+        <v>50</v>
+      </c>
+      <c r="F180">
+        <v>64</v>
+      </c>
+      <c r="G180">
+        <v>1E-4</v>
+      </c>
+      <c r="H180">
+        <v>10</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>4.3625854408331772</v>
+      </c>
+      <c r="L180">
+        <v>9.6689602700419961</v>
+      </c>
+      <c r="M180">
+        <v>130.05955821304909</v>
+      </c>
+      <c r="N180">
+        <v>0.32483236833938639</v>
+      </c>
+      <c r="O180">
+        <v>4.3625854408331772</v>
+      </c>
+      <c r="P180">
+        <v>11.09171509536479</v>
+      </c>
+      <c r="Q180">
+        <v>130.059558213049</v>
+      </c>
+      <c r="R180">
+        <v>0.31783817592664748</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>197</v>
+      </c>
+      <c r="B181" t="b">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>11</v>
+      </c>
+      <c r="D181">
+        <v>9</v>
+      </c>
+      <c r="E181">
+        <v>50</v>
+      </c>
+      <c r="F181">
+        <v>64</v>
+      </c>
+      <c r="G181">
+        <v>1E-4</v>
+      </c>
+      <c r="H181">
+        <v>10</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>3.4474046368363078</v>
+      </c>
+      <c r="L181">
+        <v>8.7078207177424574</v>
+      </c>
+      <c r="M181">
+        <v>119.47527696901329</v>
+      </c>
+      <c r="N181">
+        <v>0.27973761917399931</v>
+      </c>
+      <c r="O181">
+        <v>3.4474046368363078</v>
+      </c>
+      <c r="P181">
+        <v>10.02727423633038</v>
+      </c>
+      <c r="Q181">
+        <v>119.47527696901329</v>
+      </c>
+      <c r="R181">
+        <v>0.2519033890245066</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>198</v>
+      </c>
+      <c r="B182" t="b">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>11</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+      <c r="E182">
+        <v>20</v>
+      </c>
+      <c r="F182">
+        <v>32</v>
+      </c>
+      <c r="G182">
+        <v>1E-4</v>
+      </c>
+      <c r="H182">
+        <v>10</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>4.0461890841162766</v>
+      </c>
+      <c r="L182">
+        <v>10.469007700911799</v>
+      </c>
+      <c r="M182">
+        <v>126.3871681774699</v>
+      </c>
+      <c r="N182">
+        <v>0.30657963445582298</v>
+      </c>
+      <c r="O182">
+        <v>4.0461890841162766</v>
+      </c>
+      <c r="P182">
+        <v>12.450067525088009</v>
+      </c>
+      <c r="Q182">
+        <v>126.3871681774699</v>
+      </c>
+      <c r="R182">
+        <v>0.29177432928460412</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>199</v>
+      </c>
+      <c r="B183" t="b">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>11</v>
+      </c>
+      <c r="D183">
+        <v>6</v>
+      </c>
+      <c r="E183">
+        <v>20</v>
+      </c>
+      <c r="F183">
+        <v>32</v>
+      </c>
+      <c r="G183">
+        <v>1E-4</v>
+      </c>
+      <c r="H183">
+        <v>10</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>3.5387064881171719</v>
+      </c>
+      <c r="L183">
+        <v>8.7126798564135051</v>
+      </c>
+      <c r="M183">
+        <v>126.95017376037841</v>
+      </c>
+      <c r="N183">
+        <v>0.28342327058567002</v>
+      </c>
+      <c r="O183">
+        <v>3.5387064881171719</v>
+      </c>
+      <c r="P183">
+        <v>9.9681055464526658</v>
+      </c>
+      <c r="Q183">
+        <v>126.9501737603785</v>
+      </c>
+      <c r="R183">
+        <v>0.25813946292030981</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>200</v>
+      </c>
+      <c r="B184" t="b">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>11</v>
+      </c>
+      <c r="D184">
+        <v>9</v>
+      </c>
+      <c r="E184">
+        <v>20</v>
+      </c>
+      <c r="F184">
+        <v>32</v>
+      </c>
+      <c r="G184">
+        <v>1E-4</v>
+      </c>
+      <c r="H184">
+        <v>10</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>3.640757303957626</v>
+      </c>
+      <c r="L184">
+        <v>9.4708439240022564</v>
+      </c>
+      <c r="M184">
+        <v>100.5888657561716</v>
+      </c>
+      <c r="N184">
+        <v>0.28957172531620662</v>
+      </c>
+      <c r="O184">
+        <v>3.640757303957626</v>
+      </c>
+      <c r="P184">
+        <v>11.14404722379266</v>
+      </c>
+      <c r="Q184">
+        <v>100.5888657561716</v>
+      </c>
+      <c r="R184">
+        <v>0.26539871570664442</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>201</v>
+      </c>
+      <c r="B185" t="b">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>11</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+      <c r="E185">
+        <v>20</v>
+      </c>
+      <c r="F185">
+        <v>16</v>
+      </c>
+      <c r="G185">
+        <v>1E-4</v>
+      </c>
+      <c r="H185">
+        <v>10</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>3.6645463813403958</v>
+      </c>
+      <c r="L185">
+        <v>9.3170790671804991</v>
+      </c>
+      <c r="M185">
+        <v>106.919598484319</v>
+      </c>
+      <c r="N185">
+        <v>0.28613370040345298</v>
+      </c>
+      <c r="O185">
+        <v>3.6645463813403958</v>
+      </c>
+      <c r="P185">
+        <v>10.84515129656571</v>
+      </c>
+      <c r="Q185">
+        <v>106.919598484319</v>
+      </c>
+      <c r="R185">
+        <v>0.26399387085176412</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>202</v>
+      </c>
+      <c r="B186" t="b">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>11</v>
+      </c>
+      <c r="D186">
+        <v>6</v>
+      </c>
+      <c r="E186">
+        <v>20</v>
+      </c>
+      <c r="F186">
+        <v>16</v>
+      </c>
+      <c r="G186">
+        <v>1E-4</v>
+      </c>
+      <c r="H186">
+        <v>10</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>3.570851380602492</v>
+      </c>
+      <c r="L186">
+        <v>9.1243556664004846</v>
+      </c>
+      <c r="M186">
+        <v>117.3224693530147</v>
+      </c>
+      <c r="N186">
+        <v>0.286467127765207</v>
+      </c>
+      <c r="O186">
+        <v>3.570851380602492</v>
+      </c>
+      <c r="P186">
+        <v>10.649811387230351</v>
+      </c>
+      <c r="Q186">
+        <v>117.3224693530147</v>
+      </c>
+      <c r="R186">
+        <v>0.26021600697326158</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>203</v>
+      </c>
+      <c r="B187" t="b">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>11</v>
+      </c>
+      <c r="D187">
+        <v>9</v>
+      </c>
+      <c r="E187">
+        <v>20</v>
+      </c>
+      <c r="F187">
+        <v>16</v>
+      </c>
+      <c r="G187">
+        <v>1E-4</v>
+      </c>
+      <c r="H187">
+        <v>10</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>3.9089756534063369</v>
+      </c>
+      <c r="L187">
+        <v>9.8970945026220019</v>
+      </c>
+      <c r="M187">
+        <v>101.66649319528879</v>
+      </c>
+      <c r="N187">
+        <v>0.30572344995892331</v>
+      </c>
+      <c r="O187">
+        <v>3.9089756534063369</v>
+      </c>
+      <c r="P187">
+        <v>11.76569613209082</v>
+      </c>
+      <c r="Q187">
+        <v>101.66649319528879</v>
+      </c>
+      <c r="R187">
+        <v>0.28537381536357648</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>204</v>
+      </c>
+      <c r="B188" t="b">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>11</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+      <c r="E188">
+        <v>20</v>
+      </c>
+      <c r="F188">
+        <v>64</v>
+      </c>
+      <c r="G188">
+        <v>1E-4</v>
+      </c>
+      <c r="H188">
+        <v>10</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>3.7694887223327909</v>
+      </c>
+      <c r="L188">
+        <v>9.6776100206527946</v>
+      </c>
+      <c r="M188">
+        <v>113.1951933670466</v>
+      </c>
+      <c r="N188">
+        <v>0.29034023677071258</v>
+      </c>
+      <c r="O188">
+        <v>3.76948872233279</v>
+      </c>
+      <c r="P188">
+        <v>11.354127883633801</v>
+      </c>
+      <c r="Q188">
+        <v>113.1951933670466</v>
+      </c>
+      <c r="R188">
+        <v>0.27127094993011758</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>205</v>
+      </c>
+      <c r="B189" t="b">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>11</v>
+      </c>
+      <c r="D189">
+        <v>6</v>
+      </c>
+      <c r="E189">
+        <v>20</v>
+      </c>
+      <c r="F189">
+        <v>64</v>
+      </c>
+      <c r="G189">
+        <v>1E-4</v>
+      </c>
+      <c r="H189">
+        <v>10</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>4.0368397932613984</v>
+      </c>
+      <c r="L189">
+        <v>10.01678217177006</v>
+      </c>
+      <c r="M189">
+        <v>121.3302736439768</v>
+      </c>
+      <c r="N189">
+        <v>0.31483894212739438</v>
+      </c>
+      <c r="O189">
+        <v>4.0368397932613984</v>
+      </c>
+      <c r="P189">
+        <v>11.692844759204901</v>
+      </c>
+      <c r="Q189">
+        <v>121.3302736439768</v>
+      </c>
+      <c r="R189">
+        <v>0.29583966229911568</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>206</v>
+      </c>
+      <c r="B190" t="b">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>11</v>
+      </c>
+      <c r="D190">
+        <v>9</v>
+      </c>
+      <c r="E190">
+        <v>20</v>
+      </c>
+      <c r="F190">
+        <v>64</v>
+      </c>
+      <c r="G190">
+        <v>1E-4</v>
+      </c>
+      <c r="H190">
+        <v>10</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>5.099489836464266</v>
+      </c>
+      <c r="L190">
+        <v>11.06964086397959</v>
+      </c>
+      <c r="M190">
+        <v>111.28622563422169</v>
+      </c>
+      <c r="N190">
+        <v>0.35626321542461542</v>
+      </c>
+      <c r="O190">
+        <v>5.099489836464266</v>
+      </c>
+      <c r="P190">
+        <v>12.987347629876069</v>
+      </c>
+      <c r="Q190">
+        <v>111.28622563422169</v>
+      </c>
+      <c r="R190">
+        <v>0.3724544267929078</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>207</v>
+      </c>
+      <c r="B191" t="b">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>11</v>
+      </c>
+      <c r="D191">
+        <v>3</v>
+      </c>
+      <c r="E191">
+        <v>100</v>
+      </c>
+      <c r="F191">
+        <v>32</v>
+      </c>
+      <c r="G191">
+        <v>1E-4</v>
+      </c>
+      <c r="H191">
+        <v>10</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>3.441295449062185</v>
+      </c>
+      <c r="L191">
+        <v>8.6075435673286798</v>
+      </c>
+      <c r="M191">
+        <v>110.3413180616019</v>
+      </c>
+      <c r="N191">
+        <v>0.27235944955596442</v>
+      </c>
+      <c r="O191">
+        <v>3.441295449062185</v>
+      </c>
+      <c r="P191">
+        <v>9.7997594068323028</v>
+      </c>
+      <c r="Q191">
+        <v>110.3413180616019</v>
+      </c>
+      <c r="R191">
+        <v>0.2467550637925032</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>208</v>
+      </c>
+      <c r="B192" t="b">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>11</v>
+      </c>
+      <c r="D192">
+        <v>6</v>
+      </c>
+      <c r="E192">
+        <v>100</v>
+      </c>
+      <c r="F192">
+        <v>32</v>
+      </c>
+      <c r="G192">
+        <v>1E-4</v>
+      </c>
+      <c r="H192">
+        <v>10</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>3.450016902591138</v>
+      </c>
+      <c r="L192">
+        <v>8.6480460163375312</v>
+      </c>
+      <c r="M192">
+        <v>130.80200238680271</v>
+      </c>
+      <c r="N192">
+        <v>0.28217712851082921</v>
+      </c>
+      <c r="O192">
+        <v>3.450016902591138</v>
+      </c>
+      <c r="P192">
+        <v>9.9649253018210775</v>
+      </c>
+      <c r="Q192">
+        <v>130.80200238680271</v>
+      </c>
+      <c r="R192">
+        <v>0.2510666845208851</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>209</v>
+      </c>
+      <c r="B193" t="b">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>11</v>
+      </c>
+      <c r="D193">
+        <v>9</v>
+      </c>
+      <c r="E193">
+        <v>100</v>
+      </c>
+      <c r="F193">
+        <v>32</v>
+      </c>
+      <c r="G193">
+        <v>1E-4</v>
+      </c>
+      <c r="H193">
+        <v>10</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>3.609701037631821</v>
+      </c>
+      <c r="L193">
+        <v>9.4138188487528751</v>
+      </c>
+      <c r="M193">
+        <v>111.433662887263</v>
+      </c>
+      <c r="N193">
+        <v>0.28963793097067048</v>
+      </c>
+      <c r="O193">
+        <v>3.609701037631821</v>
+      </c>
+      <c r="P193">
+        <v>11.082451606724719</v>
+      </c>
+      <c r="Q193">
+        <v>111.433662887263</v>
+      </c>
+      <c r="R193">
+        <v>0.2630533602603079</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>210</v>
+      </c>
+      <c r="B194" t="b">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>11</v>
+      </c>
+      <c r="D194">
+        <v>3</v>
+      </c>
+      <c r="E194">
+        <v>100</v>
+      </c>
+      <c r="F194">
+        <v>16</v>
+      </c>
+      <c r="G194">
+        <v>1E-4</v>
+      </c>
+      <c r="H194">
+        <v>10</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>3.4172845118796351</v>
+      </c>
+      <c r="L194">
+        <v>8.574514920911529</v>
+      </c>
+      <c r="M194">
+        <v>117.5703186717294</v>
+      </c>
+      <c r="N194">
+        <v>0.27217625517985689</v>
+      </c>
+      <c r="O194">
+        <v>3.4172845118796338</v>
+      </c>
+      <c r="P194">
+        <v>9.8015115502073069</v>
+      </c>
+      <c r="Q194">
+        <v>117.5703186717294</v>
+      </c>
+      <c r="R194">
+        <v>0.24595514244595179</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>211</v>
+      </c>
+      <c r="B195" t="b">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>11</v>
+      </c>
+      <c r="D195">
+        <v>6</v>
+      </c>
+      <c r="E195">
+        <v>100</v>
+      </c>
+      <c r="F195">
+        <v>16</v>
+      </c>
+      <c r="G195">
+        <v>1E-4</v>
+      </c>
+      <c r="H195">
+        <v>10</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>3.548609997554645</v>
+      </c>
+      <c r="L195">
+        <v>9.2982009124804659</v>
+      </c>
+      <c r="M195">
+        <v>121.4954620763115</v>
+      </c>
+      <c r="N195">
+        <v>0.28502279197302632</v>
+      </c>
+      <c r="O195">
+        <v>3.548609997554645</v>
+      </c>
+      <c r="P195">
+        <v>10.881613522817791</v>
+      </c>
+      <c r="Q195">
+        <v>121.4954620763115</v>
+      </c>
+      <c r="R195">
+        <v>0.25849237596445568</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>212</v>
+      </c>
+      <c r="B196" t="b">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>11</v>
+      </c>
+      <c r="D196">
+        <v>9</v>
+      </c>
+      <c r="E196">
+        <v>100</v>
+      </c>
+      <c r="F196">
+        <v>16</v>
+      </c>
+      <c r="G196">
+        <v>1E-4</v>
+      </c>
+      <c r="H196">
+        <v>10</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>3.5276805453321778</v>
+      </c>
+      <c r="L196">
+        <v>9.0785460905473734</v>
+      </c>
+      <c r="M196">
+        <v>104.73312323625061</v>
+      </c>
+      <c r="N196">
+        <v>0.2815385323283553</v>
+      </c>
+      <c r="O196">
+        <v>3.5276805453321769</v>
+      </c>
+      <c r="P196">
+        <v>10.64670810134375</v>
+      </c>
+      <c r="Q196">
+        <v>104.73312323625061</v>
+      </c>
+      <c r="R196">
+        <v>0.25642243401908538</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>213</v>
+      </c>
+      <c r="B197" t="b">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>11</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+      <c r="E197">
+        <v>100</v>
+      </c>
+      <c r="F197">
+        <v>64</v>
+      </c>
+      <c r="G197">
+        <v>1E-4</v>
+      </c>
+      <c r="H197">
+        <v>10</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>3.5514577353350192</v>
+      </c>
+      <c r="L197">
+        <v>8.8151522697356484</v>
+      </c>
+      <c r="M197">
+        <v>116.2320171653197</v>
+      </c>
+      <c r="N197">
+        <v>0.27765877701539771</v>
+      </c>
+      <c r="O197">
+        <v>3.5514577353350179</v>
+      </c>
+      <c r="P197">
+        <v>10.089706751930541</v>
+      </c>
+      <c r="Q197">
+        <v>116.2320171653197</v>
+      </c>
+      <c r="R197">
+        <v>0.25567908565234271</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>214</v>
+      </c>
+      <c r="B198" t="b">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>11</v>
+      </c>
+      <c r="D198">
+        <v>6</v>
+      </c>
+      <c r="E198">
+        <v>100</v>
+      </c>
+      <c r="F198">
+        <v>64</v>
+      </c>
+      <c r="G198">
+        <v>1E-4</v>
+      </c>
+      <c r="H198">
+        <v>10</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>4.0664092474521771</v>
+      </c>
+      <c r="L198">
+        <v>9.2301625188343621</v>
+      </c>
+      <c r="M198">
+        <v>145.60227132048979</v>
+      </c>
+      <c r="N198">
+        <v>0.31128993991080811</v>
+      </c>
+      <c r="O198">
+        <v>4.0664092474521754</v>
+      </c>
+      <c r="P198">
+        <v>10.533728726117999</v>
+      </c>
+      <c r="Q198">
+        <v>145.6022713204899</v>
+      </c>
+      <c r="R198">
+        <v>0.29646980798716022</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>215</v>
+      </c>
+      <c r="B199" t="b">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>11</v>
+      </c>
+      <c r="D199">
+        <v>9</v>
+      </c>
+      <c r="E199">
+        <v>100</v>
+      </c>
+      <c r="F199">
+        <v>64</v>
+      </c>
+      <c r="G199">
+        <v>1E-4</v>
+      </c>
+      <c r="H199">
+        <v>10</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>3.979363033942461</v>
+      </c>
+      <c r="L199">
+        <v>9.4770867454043639</v>
+      </c>
+      <c r="M199">
+        <v>116.4285587268709</v>
+      </c>
+      <c r="N199">
+        <v>0.30902133483069838</v>
+      </c>
+      <c r="O199">
+        <v>3.979363033942461</v>
+      </c>
+      <c r="P199">
+        <v>10.86375101390386</v>
+      </c>
+      <c r="Q199">
+        <v>116.4285587268709</v>
+      </c>
+      <c r="R199">
+        <v>0.29118245198917708</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/013_metrics_summary.xlsx
+++ b/013_metrics_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aure/acGdrive/00_Aure/AWS/00-UAustral/03-Grupos/Labo3-Denicolay/77_TP_Entrega_Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95A826D-4554-7343-BFAA-EEC4F19701B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D49AA6-871F-DF4E-A7B4-E358C4E9685B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="76800" windowHeight="41260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>file_name</t>
   </si>
@@ -668,6 +668,99 @@
   </si>
   <si>
     <t>20240714-1708-LSTM_v8v4_feb_tfe2_0.309.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-2152-LSTM_v8v4_feb_tfe2_0.3826.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-2156-LSTM_v8v4_feb_tfe2_0.3995.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-2159-LSTM_v8v4_feb_tfe2_0.3876.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-2204-LSTM_v8v4_feb_tfe2_0.3743.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-2314-LSTM_v8v4_feb_tfe2_0.3431.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-2322-LSTM_v8v4_feb_tfe2_0.2775.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-2327-LSTM_v8v4_feb_tfe2_0.3218.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-2334-LSTM_v8v4_feb_tfe2_0.2988.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-2344-LSTM_v8v4_feb_tfe2_0.2942.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-2351-LSTM_v8v4_feb_tfe2_0.2847.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240714-2357-LSTM_v8v4_feb_tfe2_0.2996.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0008-LSTM_v8v4_feb_tfe2_0.3168.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0016-LSTM_v8v4_feb_tfe2_0.3185.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0025-LSTM_v8v4_feb_tfe2_0.3231.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0034-LSTM_v8v4_feb_tfe2_0.3119.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0046-LSTM_v8v4_feb_tfe2_0.287.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0100-LSTM_v8v4_feb_tfe2_0.3029.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0117-LSTM_v8v4_feb_tfe2_0.316.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0133-LSTM_v8v4_feb_tfe2_0.2833.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0145-LSTM_v8v4_feb_tfe2_0.2692.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0201-LSTM_v8v4_feb_tfe2_0.2931.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0219-LSTM_v8v4_feb_tfe2_0.2931.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0237-LSTM_v8v4_feb_tfe2_0.2738.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0251-LSTM_v8v4_feb_tfe2_0.2724.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0305-LSTM_v8v4_feb_tfe2_0.2969.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0322-LSTM_v8v4_feb_tfe2_0.289.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0340-LSTM_v8v4_feb_tfe2_0.2979.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0352-LSTM_v8v4_feb_tfe2_0.2699.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0408-LSTM_v8v4_feb_tfe2_0.2911.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0426-LSTM_v8v4_feb_tfe2_0.286.csv.metrics.json</t>
+  </si>
+  <si>
+    <t>20240715-0446-LSTM_v8v4_feb_tfe2_0.284.csv.metrics.json</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R199"/>
+  <dimension ref="A1:R230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12187,6 +12280,1742 @@
         <v>0.29118245198917708</v>
       </c>
     </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>216</v>
+      </c>
+      <c r="B200" t="b">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>52</v>
+      </c>
+      <c r="D200">
+        <v>12</v>
+      </c>
+      <c r="E200">
+        <v>150</v>
+      </c>
+      <c r="F200">
+        <v>64</v>
+      </c>
+      <c r="G200">
+        <v>1E-4</v>
+      </c>
+      <c r="H200">
+        <v>10</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>4.3538456545269302</v>
+      </c>
+      <c r="L200">
+        <v>10.65364500026341</v>
+      </c>
+      <c r="M200">
+        <v>157.63699173423981</v>
+      </c>
+      <c r="N200">
+        <v>0.38256401328100093</v>
+      </c>
+      <c r="O200">
+        <v>4.3538456545269293</v>
+      </c>
+      <c r="P200">
+        <v>12.53124331686613</v>
+      </c>
+      <c r="Q200">
+        <v>157.63699173423981</v>
+      </c>
+      <c r="R200">
+        <v>0.3207912364753614</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>217</v>
+      </c>
+      <c r="B201" t="b">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>52</v>
+      </c>
+      <c r="D201">
+        <v>12</v>
+      </c>
+      <c r="E201">
+        <v>150</v>
+      </c>
+      <c r="F201">
+        <v>64</v>
+      </c>
+      <c r="G201">
+        <v>1E-4</v>
+      </c>
+      <c r="H201">
+        <v>20</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>4.6315843278595494</v>
+      </c>
+      <c r="L201">
+        <v>11.144032149398321</v>
+      </c>
+      <c r="M201">
+        <v>169.50317233622721</v>
+      </c>
+      <c r="N201">
+        <v>0.39954439910918599</v>
+      </c>
+      <c r="O201">
+        <v>4.6315843278595494</v>
+      </c>
+      <c r="P201">
+        <v>13.22694766430044</v>
+      </c>
+      <c r="Q201">
+        <v>169.50317233622721</v>
+      </c>
+      <c r="R201">
+        <v>0.34211227117098542</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>218</v>
+      </c>
+      <c r="B202" t="b">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>11</v>
+      </c>
+      <c r="D202">
+        <v>12</v>
+      </c>
+      <c r="E202">
+        <v>150</v>
+      </c>
+      <c r="F202">
+        <v>64</v>
+      </c>
+      <c r="G202">
+        <v>1E-4</v>
+      </c>
+      <c r="H202">
+        <v>10</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>4.3751335809332996</v>
+      </c>
+      <c r="L202">
+        <v>10.529316256944851</v>
+      </c>
+      <c r="M202">
+        <v>158.74727758611371</v>
+      </c>
+      <c r="N202">
+        <v>0.3876042783016202</v>
+      </c>
+      <c r="O202">
+        <v>4.3751335809332996</v>
+      </c>
+      <c r="P202">
+        <v>12.360251918398509</v>
+      </c>
+      <c r="Q202">
+        <v>158.7472775861138</v>
+      </c>
+      <c r="R202">
+        <v>0.32189843948235147</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>219</v>
+      </c>
+      <c r="B203" t="b">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>11</v>
+      </c>
+      <c r="D203">
+        <v>12</v>
+      </c>
+      <c r="E203">
+        <v>150</v>
+      </c>
+      <c r="F203">
+        <v>64</v>
+      </c>
+      <c r="G203">
+        <v>1E-4</v>
+      </c>
+      <c r="H203">
+        <v>20</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <v>4.3339827204079064</v>
+      </c>
+      <c r="L203">
+        <v>11.147491161963289</v>
+      </c>
+      <c r="M203">
+        <v>147.76321685757969</v>
+      </c>
+      <c r="N203">
+        <v>0.37433821115165189</v>
+      </c>
+      <c r="O203">
+        <v>4.3339827204079047</v>
+      </c>
+      <c r="P203">
+        <v>13.52096924002184</v>
+      </c>
+      <c r="Q203">
+        <v>147.76321685757969</v>
+      </c>
+      <c r="R203">
+        <v>0.31829039388317981</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>220</v>
+      </c>
+      <c r="B204" t="b">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>52</v>
+      </c>
+      <c r="D204">
+        <v>12</v>
+      </c>
+      <c r="E204">
+        <v>150</v>
+      </c>
+      <c r="F204">
+        <v>64</v>
+      </c>
+      <c r="G204">
+        <v>1E-4</v>
+      </c>
+      <c r="H204">
+        <v>10</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>4.8618613824094608</v>
+      </c>
+      <c r="L204">
+        <v>10.65364069541036</v>
+      </c>
+      <c r="M204">
+        <v>117.16911619972019</v>
+      </c>
+      <c r="N204">
+        <v>0.3431243960673912</v>
+      </c>
+      <c r="O204">
+        <v>4.8618613824094608</v>
+      </c>
+      <c r="P204">
+        <v>12.4825992908528</v>
+      </c>
+      <c r="Q204">
+        <v>117.16911619972009</v>
+      </c>
+      <c r="R204">
+        <v>0.35968772385193648</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>221</v>
+      </c>
+      <c r="B205" t="b">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>52</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+      <c r="E205">
+        <v>150</v>
+      </c>
+      <c r="F205">
+        <v>64</v>
+      </c>
+      <c r="G205">
+        <v>1E-4</v>
+      </c>
+      <c r="H205">
+        <v>20</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>3.4634401086203579</v>
+      </c>
+      <c r="L205">
+        <v>9.0624573912117068</v>
+      </c>
+      <c r="M205">
+        <v>101.613043772823</v>
+      </c>
+      <c r="N205">
+        <v>0.2775418722793469</v>
+      </c>
+      <c r="O205">
+        <v>3.4634401086203579</v>
+      </c>
+      <c r="P205">
+        <v>10.68154411394824</v>
+      </c>
+      <c r="Q205">
+        <v>101.6130437728231</v>
+      </c>
+      <c r="R205">
+        <v>0.25575739711712708</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>222</v>
+      </c>
+      <c r="B206" t="b">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>11</v>
+      </c>
+      <c r="D206">
+        <v>12</v>
+      </c>
+      <c r="E206">
+        <v>150</v>
+      </c>
+      <c r="F206">
+        <v>64</v>
+      </c>
+      <c r="G206">
+        <v>1E-4</v>
+      </c>
+      <c r="H206">
+        <v>10</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>4.2638825680477321</v>
+      </c>
+      <c r="L206">
+        <v>10.14999079023832</v>
+      </c>
+      <c r="M206">
+        <v>108.30726244811621</v>
+      </c>
+      <c r="N206">
+        <v>0.32180587097787799</v>
+      </c>
+      <c r="O206">
+        <v>4.263882568047733</v>
+      </c>
+      <c r="P206">
+        <v>11.96770717352959</v>
+      </c>
+      <c r="Q206">
+        <v>108.30726244811621</v>
+      </c>
+      <c r="R206">
+        <v>0.3137701243338753</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>223</v>
+      </c>
+      <c r="B207" t="b">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>11</v>
+      </c>
+      <c r="D207">
+        <v>12</v>
+      </c>
+      <c r="E207">
+        <v>150</v>
+      </c>
+      <c r="F207">
+        <v>64</v>
+      </c>
+      <c r="G207">
+        <v>1E-4</v>
+      </c>
+      <c r="H207">
+        <v>20</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>3.9156614242367498</v>
+      </c>
+      <c r="L207">
+        <v>9.9356815993460348</v>
+      </c>
+      <c r="M207">
+        <v>104.8847162741561</v>
+      </c>
+      <c r="N207">
+        <v>0.29883902648852018</v>
+      </c>
+      <c r="O207">
+        <v>3.9156614242367498</v>
+      </c>
+      <c r="P207">
+        <v>11.664003298640891</v>
+      </c>
+      <c r="Q207">
+        <v>104.8847162741562</v>
+      </c>
+      <c r="R207">
+        <v>0.28855921800384071</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>224</v>
+      </c>
+      <c r="B208" t="b">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>52</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+      <c r="E208">
+        <v>150</v>
+      </c>
+      <c r="F208">
+        <v>64</v>
+      </c>
+      <c r="G208">
+        <v>1E-4</v>
+      </c>
+      <c r="H208">
+        <v>20</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>3.826123015163716</v>
+      </c>
+      <c r="L208">
+        <v>9.9102863868318529</v>
+      </c>
+      <c r="M208">
+        <v>114.04400677885749</v>
+      </c>
+      <c r="N208">
+        <v>0.29419929121211541</v>
+      </c>
+      <c r="O208">
+        <v>3.826123015163716</v>
+      </c>
+      <c r="P208">
+        <v>11.631603978529631</v>
+      </c>
+      <c r="Q208">
+        <v>114.04400677885739</v>
+      </c>
+      <c r="R208">
+        <v>0.27602694629923519</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>225</v>
+      </c>
+      <c r="B209" t="b">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>52</v>
+      </c>
+      <c r="D209">
+        <v>6</v>
+      </c>
+      <c r="E209">
+        <v>150</v>
+      </c>
+      <c r="F209">
+        <v>64</v>
+      </c>
+      <c r="G209">
+        <v>1E-4</v>
+      </c>
+      <c r="H209">
+        <v>20</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>3.5337030753467462</v>
+      </c>
+      <c r="L209">
+        <v>8.9720167171674472</v>
+      </c>
+      <c r="M209">
+        <v>114.78278127237201</v>
+      </c>
+      <c r="N209">
+        <v>0.28470519036120379</v>
+      </c>
+      <c r="O209">
+        <v>3.5337030753467449</v>
+      </c>
+      <c r="P209">
+        <v>10.309668425167979</v>
+      </c>
+      <c r="Q209">
+        <v>114.78278127237201</v>
+      </c>
+      <c r="R209">
+        <v>0.25785849272758599</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>226</v>
+      </c>
+      <c r="B210" t="b">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>52</v>
+      </c>
+      <c r="D210">
+        <v>9</v>
+      </c>
+      <c r="E210">
+        <v>150</v>
+      </c>
+      <c r="F210">
+        <v>64</v>
+      </c>
+      <c r="G210">
+        <v>1E-4</v>
+      </c>
+      <c r="H210">
+        <v>20</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>3.7998584198598522</v>
+      </c>
+      <c r="L210">
+        <v>9.5305291588702179</v>
+      </c>
+      <c r="M210">
+        <v>110.9883995758892</v>
+      </c>
+      <c r="N210">
+        <v>0.29962336828946179</v>
+      </c>
+      <c r="O210">
+        <v>3.7998584198598522</v>
+      </c>
+      <c r="P210">
+        <v>11.156696166880639</v>
+      </c>
+      <c r="Q210">
+        <v>110.9883995758892</v>
+      </c>
+      <c r="R210">
+        <v>0.27791478385879331</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>227</v>
+      </c>
+      <c r="B211" t="b">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>52</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+      <c r="E211">
+        <v>16</v>
+      </c>
+      <c r="F211">
+        <v>8</v>
+      </c>
+      <c r="G211">
+        <v>1E-4</v>
+      </c>
+      <c r="H211">
+        <v>20</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>3.826829036785659</v>
+      </c>
+      <c r="L211">
+        <v>9.5293095879935183</v>
+      </c>
+      <c r="M211">
+        <v>154.69638718553139</v>
+      </c>
+      <c r="N211">
+        <v>0.31682778408909162</v>
+      </c>
+      <c r="O211">
+        <v>3.826829036785659</v>
+      </c>
+      <c r="P211">
+        <v>11.22099266582515</v>
+      </c>
+      <c r="Q211">
+        <v>154.69638718553139</v>
+      </c>
+      <c r="R211">
+        <v>0.2762652644187128</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>228</v>
+      </c>
+      <c r="B212" t="b">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>52</v>
+      </c>
+      <c r="D212">
+        <v>6</v>
+      </c>
+      <c r="E212">
+        <v>16</v>
+      </c>
+      <c r="F212">
+        <v>8</v>
+      </c>
+      <c r="G212">
+        <v>1E-4</v>
+      </c>
+      <c r="H212">
+        <v>20</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>3.962331930921382</v>
+      </c>
+      <c r="L212">
+        <v>10.275005332370791</v>
+      </c>
+      <c r="M212">
+        <v>139.96372437454849</v>
+      </c>
+      <c r="N212">
+        <v>0.31851198990030027</v>
+      </c>
+      <c r="O212">
+        <v>3.962331930921382</v>
+      </c>
+      <c r="P212">
+        <v>12.49412506186963</v>
+      </c>
+      <c r="Q212">
+        <v>139.96372437454849</v>
+      </c>
+      <c r="R212">
+        <v>0.29104962387186778</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>229</v>
+      </c>
+      <c r="B213" t="b">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>52</v>
+      </c>
+      <c r="D213">
+        <v>9</v>
+      </c>
+      <c r="E213">
+        <v>16</v>
+      </c>
+      <c r="F213">
+        <v>8</v>
+      </c>
+      <c r="G213">
+        <v>1E-4</v>
+      </c>
+      <c r="H213">
+        <v>20</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>4.0445427949546362</v>
+      </c>
+      <c r="L213">
+        <v>10.2047964709787</v>
+      </c>
+      <c r="M213">
+        <v>125.41679154430641</v>
+      </c>
+      <c r="N213">
+        <v>0.32312743687785189</v>
+      </c>
+      <c r="O213">
+        <v>4.0445427949546362</v>
+      </c>
+      <c r="P213">
+        <v>12.27840427759936</v>
+      </c>
+      <c r="Q213">
+        <v>125.41679154430641</v>
+      </c>
+      <c r="R213">
+        <v>0.29796602566689151</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>230</v>
+      </c>
+      <c r="B214" t="b">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>52</v>
+      </c>
+      <c r="D214">
+        <v>12</v>
+      </c>
+      <c r="E214">
+        <v>16</v>
+      </c>
+      <c r="F214">
+        <v>8</v>
+      </c>
+      <c r="G214">
+        <v>1E-4</v>
+      </c>
+      <c r="H214">
+        <v>20</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>4.0827227424962116</v>
+      </c>
+      <c r="L214">
+        <v>10.685479756777809</v>
+      </c>
+      <c r="M214">
+        <v>105.9006753767575</v>
+      </c>
+      <c r="N214">
+        <v>0.31188722096146171</v>
+      </c>
+      <c r="O214">
+        <v>4.0827227424962116</v>
+      </c>
+      <c r="P214">
+        <v>13.35791992146115</v>
+      </c>
+      <c r="Q214">
+        <v>105.9006753767575</v>
+      </c>
+      <c r="R214">
+        <v>0.30190150498455409</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>231</v>
+      </c>
+      <c r="B215" t="b">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>52</v>
+      </c>
+      <c r="D215">
+        <v>3</v>
+      </c>
+      <c r="E215">
+        <v>32</v>
+      </c>
+      <c r="F215">
+        <v>8</v>
+      </c>
+      <c r="G215">
+        <v>1E-4</v>
+      </c>
+      <c r="H215">
+        <v>20</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>3.687045966012128</v>
+      </c>
+      <c r="L215">
+        <v>8.8205560035476562</v>
+      </c>
+      <c r="M215">
+        <v>114.2519296756148</v>
+      </c>
+      <c r="N215">
+        <v>0.28703890904599721</v>
+      </c>
+      <c r="O215">
+        <v>3.687045966012128</v>
+      </c>
+      <c r="P215">
+        <v>10.14082790311549</v>
+      </c>
+      <c r="Q215">
+        <v>114.2519296756148</v>
+      </c>
+      <c r="R215">
+        <v>0.2646854696035274</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>232</v>
+      </c>
+      <c r="B216" t="b">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>52</v>
+      </c>
+      <c r="D216">
+        <v>6</v>
+      </c>
+      <c r="E216">
+        <v>32</v>
+      </c>
+      <c r="F216">
+        <v>8</v>
+      </c>
+      <c r="G216">
+        <v>1E-4</v>
+      </c>
+      <c r="H216">
+        <v>20</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>3.7919195922083881</v>
+      </c>
+      <c r="L216">
+        <v>9.4286646953347883</v>
+      </c>
+      <c r="M216">
+        <v>140.81943290750399</v>
+      </c>
+      <c r="N216">
+        <v>0.3028880209412072</v>
+      </c>
+      <c r="O216">
+        <v>3.7919195922083868</v>
+      </c>
+      <c r="P216">
+        <v>11.0797090581119</v>
+      </c>
+      <c r="Q216">
+        <v>140.81943290750399</v>
+      </c>
+      <c r="R216">
+        <v>0.27505930665826711</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>233</v>
+      </c>
+      <c r="B217" t="b">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>52</v>
+      </c>
+      <c r="D217">
+        <v>9</v>
+      </c>
+      <c r="E217">
+        <v>32</v>
+      </c>
+      <c r="F217">
+        <v>8</v>
+      </c>
+      <c r="G217">
+        <v>1E-4</v>
+      </c>
+      <c r="H217">
+        <v>20</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>3.9676566067001442</v>
+      </c>
+      <c r="L217">
+        <v>9.79520592301024</v>
+      </c>
+      <c r="M217">
+        <v>123.9242907812329</v>
+      </c>
+      <c r="N217">
+        <v>0.31603329018816861</v>
+      </c>
+      <c r="O217">
+        <v>3.9676566067001429</v>
+      </c>
+      <c r="P217">
+        <v>11.666765339500641</v>
+      </c>
+      <c r="Q217">
+        <v>123.9242907812329</v>
+      </c>
+      <c r="R217">
+        <v>0.28928737983700792</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>234</v>
+      </c>
+      <c r="B218" t="b">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>52</v>
+      </c>
+      <c r="D218">
+        <v>12</v>
+      </c>
+      <c r="E218">
+        <v>32</v>
+      </c>
+      <c r="F218">
+        <v>8</v>
+      </c>
+      <c r="G218">
+        <v>1E-4</v>
+      </c>
+      <c r="H218">
+        <v>20</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>3.5888577541899669</v>
+      </c>
+      <c r="L218">
+        <v>8.8109845428619433</v>
+      </c>
+      <c r="M218">
+        <v>105.8969289471305</v>
+      </c>
+      <c r="N218">
+        <v>0.28332737169121341</v>
+      </c>
+      <c r="O218">
+        <v>3.588857754189966</v>
+      </c>
+      <c r="P218">
+        <v>10.441990155817059</v>
+      </c>
+      <c r="Q218">
+        <v>105.8969289471306</v>
+      </c>
+      <c r="R218">
+        <v>0.26505425586031528</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>235</v>
+      </c>
+      <c r="B219" t="b">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>52</v>
+      </c>
+      <c r="D219">
+        <v>3</v>
+      </c>
+      <c r="E219">
+        <v>64</v>
+      </c>
+      <c r="F219">
+        <v>8</v>
+      </c>
+      <c r="G219">
+        <v>1E-4</v>
+      </c>
+      <c r="H219">
+        <v>20</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>3.3363141583063101</v>
+      </c>
+      <c r="L219">
+        <v>8.3958930173489392</v>
+      </c>
+      <c r="M219">
+        <v>113.1349624678636</v>
+      </c>
+      <c r="N219">
+        <v>0.26917725094009348</v>
+      </c>
+      <c r="O219">
+        <v>3.3363141583063092</v>
+      </c>
+      <c r="P219">
+        <v>9.5718600181483726</v>
+      </c>
+      <c r="Q219">
+        <v>113.1349624678635</v>
+      </c>
+      <c r="R219">
+        <v>0.24059559392698701</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>236</v>
+      </c>
+      <c r="B220" t="b">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>52</v>
+      </c>
+      <c r="D220">
+        <v>6</v>
+      </c>
+      <c r="E220">
+        <v>64</v>
+      </c>
+      <c r="F220">
+        <v>8</v>
+      </c>
+      <c r="G220">
+        <v>1E-4</v>
+      </c>
+      <c r="H220">
+        <v>20</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>3.672164290961824</v>
+      </c>
+      <c r="L220">
+        <v>9.298060225256723</v>
+      </c>
+      <c r="M220">
+        <v>127.1135651296064</v>
+      </c>
+      <c r="N220">
+        <v>0.29313512813696813</v>
+      </c>
+      <c r="O220">
+        <v>3.6721642909618248</v>
+      </c>
+      <c r="P220">
+        <v>10.87118171975299</v>
+      </c>
+      <c r="Q220">
+        <v>127.1135651296065</v>
+      </c>
+      <c r="R220">
+        <v>0.26659295620944251</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>237</v>
+      </c>
+      <c r="B221" t="b">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>52</v>
+      </c>
+      <c r="D221">
+        <v>9</v>
+      </c>
+      <c r="E221">
+        <v>64</v>
+      </c>
+      <c r="F221">
+        <v>8</v>
+      </c>
+      <c r="G221">
+        <v>1E-4</v>
+      </c>
+      <c r="H221">
+        <v>20</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>3.6072189375270858</v>
+      </c>
+      <c r="L221">
+        <v>9.1073309746229167</v>
+      </c>
+      <c r="M221">
+        <v>119.0845696050164</v>
+      </c>
+      <c r="N221">
+        <v>0.29305400141488308</v>
+      </c>
+      <c r="O221">
+        <v>3.6072189375270871</v>
+      </c>
+      <c r="P221">
+        <v>10.664686063243339</v>
+      </c>
+      <c r="Q221">
+        <v>119.0845696050164</v>
+      </c>
+      <c r="R221">
+        <v>0.26274623755040039</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>238</v>
+      </c>
+      <c r="B222" t="b">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>52</v>
+      </c>
+      <c r="D222">
+        <v>12</v>
+      </c>
+      <c r="E222">
+        <v>64</v>
+      </c>
+      <c r="F222">
+        <v>8</v>
+      </c>
+      <c r="G222">
+        <v>1E-4</v>
+      </c>
+      <c r="H222">
+        <v>20</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>3.3733281627374518</v>
+      </c>
+      <c r="L222">
+        <v>8.6500534169852337</v>
+      </c>
+      <c r="M222">
+        <v>111.374864997751</v>
+      </c>
+      <c r="N222">
+        <v>0.27384538086046317</v>
+      </c>
+      <c r="O222">
+        <v>3.3733281627374518</v>
+      </c>
+      <c r="P222">
+        <v>10.197876164683461</v>
+      </c>
+      <c r="Q222">
+        <v>111.374864997751</v>
+      </c>
+      <c r="R222">
+        <v>0.24856499776772559</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>239</v>
+      </c>
+      <c r="B223" t="b">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>52</v>
+      </c>
+      <c r="D223">
+        <v>3</v>
+      </c>
+      <c r="E223">
+        <v>100</v>
+      </c>
+      <c r="F223">
+        <v>8</v>
+      </c>
+      <c r="G223">
+        <v>1E-4</v>
+      </c>
+      <c r="H223">
+        <v>20</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>3.3888008048403302</v>
+      </c>
+      <c r="L223">
+        <v>8.5585781382814652</v>
+      </c>
+      <c r="M223">
+        <v>115.84619178433699</v>
+      </c>
+      <c r="N223">
+        <v>0.27243014403774019</v>
+      </c>
+      <c r="O223">
+        <v>3.3888008048403289</v>
+      </c>
+      <c r="P223">
+        <v>9.7841079652038054</v>
+      </c>
+      <c r="Q223">
+        <v>115.84619178433709</v>
+      </c>
+      <c r="R223">
+        <v>0.24286129331350481</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>240</v>
+      </c>
+      <c r="B224" t="b">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>52</v>
+      </c>
+      <c r="D224">
+        <v>6</v>
+      </c>
+      <c r="E224">
+        <v>100</v>
+      </c>
+      <c r="F224">
+        <v>8</v>
+      </c>
+      <c r="G224">
+        <v>1E-4</v>
+      </c>
+      <c r="H224">
+        <v>20</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>3.693755935100012</v>
+      </c>
+      <c r="L224">
+        <v>9.614924457768252</v>
+      </c>
+      <c r="M224">
+        <v>139.8606775112768</v>
+      </c>
+      <c r="N224">
+        <v>0.29688283647827718</v>
+      </c>
+      <c r="O224">
+        <v>3.693755935100012</v>
+      </c>
+      <c r="P224">
+        <v>11.45045566989198</v>
+      </c>
+      <c r="Q224">
+        <v>139.8606775112768</v>
+      </c>
+      <c r="R224">
+        <v>0.26762081119302972</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>241</v>
+      </c>
+      <c r="B225" t="b">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>52</v>
+      </c>
+      <c r="D225">
+        <v>9</v>
+      </c>
+      <c r="E225">
+        <v>100</v>
+      </c>
+      <c r="F225">
+        <v>8</v>
+      </c>
+      <c r="G225">
+        <v>1E-4</v>
+      </c>
+      <c r="H225">
+        <v>20</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>3.5885669919220571</v>
+      </c>
+      <c r="L225">
+        <v>9.0035603077112132</v>
+      </c>
+      <c r="M225">
+        <v>121.0100210600356</v>
+      </c>
+      <c r="N225">
+        <v>0.28899942535295159</v>
+      </c>
+      <c r="O225">
+        <v>3.588566991922058</v>
+      </c>
+      <c r="P225">
+        <v>10.53616533110935</v>
+      </c>
+      <c r="Q225">
+        <v>121.0100210600356</v>
+      </c>
+      <c r="R225">
+        <v>0.2615265087929059</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>242</v>
+      </c>
+      <c r="B226" t="b">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>52</v>
+      </c>
+      <c r="D226">
+        <v>12</v>
+      </c>
+      <c r="E226">
+        <v>100</v>
+      </c>
+      <c r="F226">
+        <v>8</v>
+      </c>
+      <c r="G226">
+        <v>1E-4</v>
+      </c>
+      <c r="H226">
+        <v>20</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>3.7462692391262848</v>
+      </c>
+      <c r="L226">
+        <v>10.58850863891788</v>
+      </c>
+      <c r="M226">
+        <v>109.8086261727608</v>
+      </c>
+      <c r="N226">
+        <v>0.29794498858997559</v>
+      </c>
+      <c r="O226">
+        <v>3.7462692391262848</v>
+      </c>
+      <c r="P226">
+        <v>13.27609758880809</v>
+      </c>
+      <c r="Q226">
+        <v>109.8086261727609</v>
+      </c>
+      <c r="R226">
+        <v>0.27661026813659562</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>243</v>
+      </c>
+      <c r="B227" t="b">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>52</v>
+      </c>
+      <c r="D227">
+        <v>3</v>
+      </c>
+      <c r="E227">
+        <v>150</v>
+      </c>
+      <c r="F227">
+        <v>8</v>
+      </c>
+      <c r="G227">
+        <v>1E-4</v>
+      </c>
+      <c r="H227">
+        <v>20</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>3.3758274231670078</v>
+      </c>
+      <c r="L227">
+        <v>8.4665721156425935</v>
+      </c>
+      <c r="M227">
+        <v>112.3387699013944</v>
+      </c>
+      <c r="N227">
+        <v>0.26992950696408008</v>
+      </c>
+      <c r="O227">
+        <v>3.3758274231670078</v>
+      </c>
+      <c r="P227">
+        <v>9.6662224517178874</v>
+      </c>
+      <c r="Q227">
+        <v>112.3387699013944</v>
+      </c>
+      <c r="R227">
+        <v>0.24284836292416831</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>244</v>
+      </c>
+      <c r="B228" t="b">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>52</v>
+      </c>
+      <c r="D228">
+        <v>6</v>
+      </c>
+      <c r="E228">
+        <v>150</v>
+      </c>
+      <c r="F228">
+        <v>8</v>
+      </c>
+      <c r="G228">
+        <v>1E-4</v>
+      </c>
+      <c r="H228">
+        <v>20</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>3.596294730815234</v>
+      </c>
+      <c r="L228">
+        <v>9.0702406978359083</v>
+      </c>
+      <c r="M228">
+        <v>142.5138725587226</v>
+      </c>
+      <c r="N228">
+        <v>0.2910873421019301</v>
+      </c>
+      <c r="O228">
+        <v>3.596294730815234</v>
+      </c>
+      <c r="P228">
+        <v>10.565934038492991</v>
+      </c>
+      <c r="Q228">
+        <v>142.5138725587226</v>
+      </c>
+      <c r="R228">
+        <v>0.26093285758522361</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>245</v>
+      </c>
+      <c r="B229" t="b">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>52</v>
+      </c>
+      <c r="D229">
+        <v>9</v>
+      </c>
+      <c r="E229">
+        <v>150</v>
+      </c>
+      <c r="F229">
+        <v>8</v>
+      </c>
+      <c r="G229">
+        <v>1E-4</v>
+      </c>
+      <c r="H229">
+        <v>20</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>3.528394629604676</v>
+      </c>
+      <c r="L229">
+        <v>8.8128139482827699</v>
+      </c>
+      <c r="M229">
+        <v>115.4656780207262</v>
+      </c>
+      <c r="N229">
+        <v>0.28600463107691099</v>
+      </c>
+      <c r="O229">
+        <v>3.528394629604676</v>
+      </c>
+      <c r="P229">
+        <v>10.252308322931659</v>
+      </c>
+      <c r="Q229">
+        <v>115.4656780207262</v>
+      </c>
+      <c r="R229">
+        <v>0.25640025582875092</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>246</v>
+      </c>
+      <c r="B230" t="b">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>52</v>
+      </c>
+      <c r="D230">
+        <v>12</v>
+      </c>
+      <c r="E230">
+        <v>150</v>
+      </c>
+      <c r="F230">
+        <v>8</v>
+      </c>
+      <c r="G230">
+        <v>1E-4</v>
+      </c>
+      <c r="H230">
+        <v>20</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>3.5460209513395959</v>
+      </c>
+      <c r="L230">
+        <v>9.2518368114603593</v>
+      </c>
+      <c r="M230">
+        <v>107.4789689182701</v>
+      </c>
+      <c r="N230">
+        <v>0.28396497307009361</v>
+      </c>
+      <c r="O230">
+        <v>3.5460209513395959</v>
+      </c>
+      <c r="P230">
+        <v>11.11379612856617</v>
+      </c>
+      <c r="Q230">
+        <v>107.4789689182701</v>
+      </c>
+      <c r="R230">
+        <v>0.26109406788560002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
